--- a/output/EssencialReations_analise/Media/Compositions/@saidaouter_CompGrp4.xlsx
+++ b/output/EssencialReations_analise/Media/Compositions/@saidaouter_CompGrp4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\EssencialReations_analise\Media\Compositions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F50684-FA15-43AE-931A-29A38EF13050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D361BAD-435D-466F-B287-0E6A7AD6FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ230"/>
   <sheetViews>
-    <sheetView topLeftCell="EI309" workbookViewId="0">
-      <selection sqref="A1:EZ317"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23904,7 +23904,7 @@
   <dimension ref="A1:BR156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+      <selection activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
